--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NB_Git\Slosh2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8BC19C9-B9C1-47EC-ABDF-117CF75A812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C33CD-9E21-4B3D-8F91-5A04BFB6A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39090" yWindow="2325" windowWidth="28230" windowHeight="16440" xr2:uid="{EE6DACC2-30D9-4C98-9C10-38FD92DD485C}"/>
+    <workbookView xWindow="720" yWindow="-96" windowWidth="30096" windowHeight="17472" xr2:uid="{EE6DACC2-30D9-4C98-9C10-38FD92DD485C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
   <si>
     <t>test2</t>
   </si>
@@ -481,9 +481,6 @@
     <t>test50</t>
   </si>
   <si>
-    <t>test61</t>
-  </si>
-  <si>
     <t>test225</t>
   </si>
   <si>
@@ -511,9 +508,6 @@
     <t>test51</t>
   </si>
   <si>
-    <t>test62</t>
-  </si>
-  <si>
     <t>test226</t>
   </si>
   <si>
@@ -772,9 +766,6 @@
     <t>test98</t>
   </si>
   <si>
-    <t>test109</t>
-  </si>
-  <si>
     <t>test158</t>
   </si>
   <si>
@@ -799,9 +790,6 @@
     <t>test99</t>
   </si>
   <si>
-    <t>test110</t>
-  </si>
-  <si>
     <t>test159</t>
   </si>
   <si>
@@ -826,9 +814,6 @@
     <t>test100</t>
   </si>
   <si>
-    <t>test111</t>
-  </si>
-  <si>
     <t>test160</t>
   </si>
   <si>
@@ -853,9 +838,6 @@
     <t>test101</t>
   </si>
   <si>
-    <t>test112</t>
-  </si>
-  <si>
     <t>test161</t>
   </si>
   <si>
@@ -880,9 +862,6 @@
     <t>test102</t>
   </si>
   <si>
-    <t>test113</t>
-  </si>
-  <si>
     <t>test162</t>
   </si>
   <si>
@@ -901,12 +880,6 @@
     <t>test92</t>
   </si>
   <si>
-    <t>test103</t>
-  </si>
-  <si>
-    <t>test114</t>
-  </si>
-  <si>
     <t>test163</t>
   </si>
   <si>
@@ -917,12 +890,6 @@
   </si>
   <si>
     <t>test93</t>
-  </si>
-  <si>
-    <t>test104</t>
-  </si>
-  <si>
-    <t>test115</t>
   </si>
   <si>
     <t>test164</t>
@@ -1324,54 +1291,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1688,120 +1655,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3BA6B0-32A9-45C0-9C78-FAD0E5999BCF}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47"/>
-      <c r="B1" s="63">
+      <c r="B1" s="48">
         <v>77</v>
       </c>
-      <c r="C1" s="64">
+      <c r="C1" s="49">
         <v>77</v>
       </c>
-      <c r="D1" s="63">
+      <c r="D1" s="48">
         <v>75</v>
       </c>
-      <c r="E1" s="64">
+      <c r="E1" s="49">
         <v>75</v>
       </c>
-      <c r="F1" s="63">
+      <c r="F1" s="48">
         <v>55</v>
       </c>
-      <c r="G1" s="65">
+      <c r="G1" s="50">
         <v>55</v>
       </c>
-      <c r="H1" s="65">
+      <c r="H1" s="50">
         <v>55</v>
       </c>
-      <c r="I1" s="64">
+      <c r="I1" s="49">
         <v>55</v>
       </c>
-      <c r="J1" s="63">
+      <c r="J1" s="48">
         <v>35</v>
       </c>
-      <c r="K1" s="65">
+      <c r="K1" s="50">
         <v>35</v>
       </c>
-      <c r="L1" s="65">
+      <c r="L1" s="50">
         <v>35</v>
       </c>
-      <c r="M1" s="65">
+      <c r="M1" s="50">
         <v>35</v>
       </c>
-      <c r="N1" s="63">
+      <c r="N1" s="48">
         <v>20</v>
       </c>
-      <c r="O1" s="65">
+      <c r="O1" s="50">
         <v>20</v>
       </c>
-      <c r="P1" s="65">
+      <c r="P1" s="50">
         <v>20</v>
       </c>
-      <c r="Q1" s="64">
+      <c r="Q1" s="49">
         <v>20</v>
       </c>
-      <c r="R1" s="63">
+      <c r="R1" s="48">
         <v>77</v>
       </c>
-      <c r="S1" s="65">
+      <c r="S1" s="50">
         <v>77</v>
       </c>
-      <c r="T1" s="65">
+      <c r="T1" s="50">
         <v>77</v>
       </c>
-      <c r="U1" s="65">
+      <c r="U1" s="50">
         <v>77</v>
       </c>
-      <c r="V1" s="64">
+      <c r="V1" s="49">
         <v>77</v>
       </c>
-      <c r="W1" s="63">
+      <c r="W1" s="48">
         <v>70</v>
       </c>
-      <c r="X1" s="65">
+      <c r="X1" s="50">
         <v>70</v>
       </c>
-      <c r="Y1" s="65">
+      <c r="Y1" s="50">
         <v>70</v>
       </c>
-      <c r="Z1" s="65">
+      <c r="Z1" s="50">
         <v>70</v>
       </c>
-      <c r="AA1" s="64">
+      <c r="AA1" s="49">
         <v>70</v>
       </c>
-      <c r="AB1" s="63">
+      <c r="AB1" s="48">
         <v>60</v>
       </c>
-      <c r="AC1" s="65">
+      <c r="AC1" s="50">
         <v>60</v>
       </c>
-      <c r="AD1" s="65">
+      <c r="AD1" s="50">
         <v>60</v>
       </c>
-      <c r="AE1" s="65">
+      <c r="AE1" s="50">
         <v>60</v>
       </c>
-      <c r="AF1" s="64">
+      <c r="AF1" s="49">
         <v>60</v>
       </c>
-      <c r="AG1" s="63">
+      <c r="AG1" s="48">
         <v>50</v>
       </c>
-      <c r="AH1" s="65">
+      <c r="AH1" s="50">
         <v>50</v>
       </c>
-      <c r="AI1" s="65">
+      <c r="AI1" s="50">
         <v>50</v>
       </c>
-      <c r="AJ1" s="65">
+      <c r="AJ1" s="50">
         <v>50</v>
       </c>
-      <c r="AK1" s="64">
+      <c r="AK1" s="49">
         <v>50</v>
       </c>
     </row>
@@ -1919,67 +1886,67 @@
       <c r="A3" s="3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
       <c r="U3" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="AA3" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="15" t="s">
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AF3" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="15" t="s">
+      <c r="AG3" s="59"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="59"/>
+      <c r="AJ3" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AK3" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="AK3" s="15" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>0.5</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="14"/>
       <c r="G4" s="15" t="s">
         <v>40</v>
@@ -2011,64 +1978,64 @@
         <v>48</v>
       </c>
       <c r="R4" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="U4" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="V4" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="W4" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="X4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="Y4" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="Z4" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="AB4" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AC4" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AD4" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AE4" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AF4" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AG4" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AH4" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AI4" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AK4" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="AJ4" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK4" s="36" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2124,64 +2091,64 @@
         <v>60</v>
       </c>
       <c r="R5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="T5" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="V5" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="W5" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="X5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="Y5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="Z5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="AA5" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="AB5" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AC5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AB5" s="6" t="s">
+      <c r="AD5" s="19" t="s">
         <v>203</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AE5" s="37" t="s">
         <v>204</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AF5" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AG5" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AH5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AG5" s="5" t="s">
+      <c r="AI5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="AH5" s="5" t="s">
+      <c r="AJ5" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AK5" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="AJ5" s="38" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2237,57 +2204,57 @@
         <v>72</v>
       </c>
       <c r="R6" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="T6" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="U6" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="V6" s="62"/>
+      <c r="W6" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="X6" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="V6" s="54"/>
-      <c r="W6" s="6" t="s">
+      <c r="Y6" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Z6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="AC6" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="6" t="s">
+      <c r="AD6" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AE6" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="AD6" s="39" t="s">
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="AE6" s="23" t="s">
+      <c r="AH6" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="5" t="s">
+      <c r="AI6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AJ6" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="AI6" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ6" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="AK6" s="51"/>
+      <c r="AK6" s="57"/>
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2342,49 +2309,49 @@
         <v>84</v>
       </c>
       <c r="R7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="T7" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="U7" s="61"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="X7" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="6" t="s">
+      <c r="Y7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="63"/>
+      <c r="AB7" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="AC7" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="55"/>
-      <c r="AB7" s="6" t="s">
+      <c r="AD7" s="40" t="s">
         <v>235</v>
       </c>
-      <c r="AC7" s="5" t="s">
+      <c r="AE7" s="60"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="AD7" s="40" t="s">
+      <c r="AH7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AE7" s="48"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="5" t="s">
+      <c r="AI7" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="AH7" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI7" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="51"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="57"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2439,43 +2406,41 @@
         <v>96</v>
       </c>
       <c r="R8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="T8" s="61"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="55"/>
-      <c r="W8" s="6" t="s">
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="Y8" s="41" t="s">
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="Z8" s="51"/>
-      <c r="AA8" s="55"/>
-      <c r="AB8" s="6" t="s">
+      <c r="AH8" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AC8" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD8" s="51"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="51"/>
-      <c r="AK8" s="51"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2530,43 +2495,41 @@
         <v>108</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="6" t="s">
+      <c r="AC9" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="Y9" s="41" t="s">
+      <c r="AH9" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC9" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD9" s="51"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH9" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="51"/>
-      <c r="AK9" s="51"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2621,43 +2584,41 @@
         <v>120</v>
       </c>
       <c r="R10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="X10" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="AC10" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="T10" s="51"/>
-      <c r="U10" s="51"/>
-      <c r="V10" s="55"/>
-      <c r="W10" s="6" t="s">
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="AH10" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="Y10" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD10" s="51"/>
-      <c r="AE10" s="51"/>
-      <c r="AF10" s="51"/>
-      <c r="AG10" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="AH10" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="AI10" s="51"/>
-      <c r="AJ10" s="51"/>
-      <c r="AK10" s="51"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2712,43 +2673,41 @@
         <v>132</v>
       </c>
       <c r="R11" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="X11" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC11" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="6" t="s">
+      <c r="AH11" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="X11" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y11" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AC11" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="51"/>
-      <c r="AF11" s="51"/>
-      <c r="AG11" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AH11" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="AI11" s="51"/>
-      <c r="AJ11" s="51"/>
-      <c r="AK11" s="51"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -2803,43 +2762,41 @@
         <v>144</v>
       </c>
       <c r="R12" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="42" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="AH12" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y12" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="42" t="s">
-        <v>282</v>
-      </c>
-      <c r="AC12" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD12" s="51"/>
-      <c r="AE12" s="51"/>
-      <c r="AF12" s="51"/>
-      <c r="AG12" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH12" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI12" s="51"/>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -2866,61 +2823,55 @@
       <c r="H13" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="24"/>
+      <c r="J13" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="L13" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>151</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="23" t="s">
         <v>153</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>154</v>
       </c>
       <c r="Q13" s="26"/>
       <c r="R13" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="S13" s="48"/>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="55"/>
+        <v>279</v>
+      </c>
+      <c r="S13" s="60"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="63"/>
       <c r="W13" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="X13" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y13" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="55"/>
+        <v>280</v>
+      </c>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="63"/>
       <c r="AB13" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="51"/>
-      <c r="AE13" s="51"/>
-      <c r="AF13" s="51"/>
+        <v>281</v>
+      </c>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
       <c r="AG13" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="51"/>
-      <c r="AJ13" s="51"/>
-      <c r="AK13" s="51"/>
+        <v>282</v>
+      </c>
+      <c r="AH13" s="60"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
     </row>
     <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
@@ -2939,72 +2890,70 @@
         <v>39</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="28"/>
+      <c r="J14" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="L14" s="27" t="s">
         <v>159</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>161</v>
       </c>
       <c r="M14" s="28"/>
       <c r="N14" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="27" t="s">
         <v>162</v>
-      </c>
-      <c r="O14" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>164</v>
       </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="56"/>
+        <v>283</v>
+      </c>
+      <c r="S14" s="65"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="X14" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y14" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="56"/>
+        <v>284</v>
+      </c>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="64"/>
       <c r="AB14" s="44" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="52"/>
+        <v>285</v>
+      </c>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="58"/>
+      <c r="AE14" s="58"/>
+      <c r="AF14" s="58"/>
       <c r="AG14" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="52"/>
-      <c r="AJ14" s="52"/>
-      <c r="AK14" s="52"/>
+        <v>286</v>
+      </c>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="58"/>
+      <c r="AJ14" s="58"/>
+      <c r="AK14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="U7:U14"/>
+    <mergeCell ref="Z7:Z14"/>
+    <mergeCell ref="AE7:AE14"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="AK6:AK14"/>
     <mergeCell ref="R3:T3"/>
@@ -3021,10 +2970,6 @@
     <mergeCell ref="AF6:AF14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="U7:U14"/>
-    <mergeCell ref="Z7:Z14"/>
-    <mergeCell ref="AE7:AE14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Filenames.xlsx
+++ b/Filenames.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\NB_Git\Slosh2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C33CD-9E21-4B3D-8F91-5A04BFB6A257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E97697-5633-45ED-BA8A-D015B7BCC9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="-96" windowWidth="30096" windowHeight="17472" xr2:uid="{EE6DACC2-30D9-4C98-9C10-38FD92DD485C}"/>
+    <workbookView xWindow="39090" yWindow="2325" windowWidth="28230" windowHeight="16440" xr2:uid="{EE6DACC2-30D9-4C98-9C10-38FD92DD485C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,7 +1152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1184,13 +1184,7 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1294,6 +1288,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1312,21 +1321,9 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,9 +1331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1655,120 +1649,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD3BA6B0-32A9-45C0-9C78-FAD0E5999BCF}">
   <dimension ref="A1:AK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46">
         <v>77</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="47">
         <v>77</v>
       </c>
-      <c r="D1" s="48">
+      <c r="D1" s="46">
         <v>75</v>
       </c>
-      <c r="E1" s="49">
+      <c r="E1" s="47">
         <v>75</v>
       </c>
-      <c r="F1" s="48">
+      <c r="F1" s="46">
         <v>55</v>
       </c>
-      <c r="G1" s="50">
+      <c r="G1" s="48">
         <v>55</v>
       </c>
-      <c r="H1" s="50">
+      <c r="H1" s="48">
         <v>55</v>
       </c>
-      <c r="I1" s="49">
+      <c r="I1" s="47">
         <v>55</v>
       </c>
-      <c r="J1" s="48">
+      <c r="J1" s="46">
         <v>35</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="48">
         <v>35</v>
       </c>
-      <c r="L1" s="50">
+      <c r="L1" s="48">
         <v>35</v>
       </c>
-      <c r="M1" s="50">
+      <c r="M1" s="48">
         <v>35</v>
       </c>
-      <c r="N1" s="48">
+      <c r="N1" s="46">
         <v>20</v>
       </c>
-      <c r="O1" s="50">
+      <c r="O1" s="48">
         <v>20</v>
       </c>
-      <c r="P1" s="50">
+      <c r="P1" s="48">
         <v>20</v>
       </c>
-      <c r="Q1" s="49">
+      <c r="Q1" s="47">
         <v>20</v>
       </c>
-      <c r="R1" s="48">
+      <c r="R1" s="46">
         <v>77</v>
       </c>
-      <c r="S1" s="50">
+      <c r="S1" s="48">
         <v>77</v>
       </c>
-      <c r="T1" s="50">
+      <c r="T1" s="48">
         <v>77</v>
       </c>
-      <c r="U1" s="50">
+      <c r="U1" s="48">
         <v>77</v>
       </c>
-      <c r="V1" s="49">
+      <c r="V1" s="47">
         <v>77</v>
       </c>
-      <c r="W1" s="48">
+      <c r="W1" s="46">
         <v>70</v>
       </c>
-      <c r="X1" s="50">
+      <c r="X1" s="48">
         <v>70</v>
       </c>
-      <c r="Y1" s="50">
+      <c r="Y1" s="48">
         <v>70</v>
       </c>
-      <c r="Z1" s="50">
+      <c r="Z1" s="48">
         <v>70</v>
       </c>
-      <c r="AA1" s="49">
+      <c r="AA1" s="47">
         <v>70</v>
       </c>
-      <c r="AB1" s="48">
+      <c r="AB1" s="46">
         <v>60</v>
       </c>
-      <c r="AC1" s="50">
+      <c r="AC1" s="48">
         <v>60</v>
       </c>
-      <c r="AD1" s="50">
+      <c r="AD1" s="48">
         <v>60</v>
       </c>
-      <c r="AE1" s="50">
+      <c r="AE1" s="48">
         <v>60</v>
       </c>
-      <c r="AF1" s="49">
+      <c r="AF1" s="47">
         <v>60</v>
       </c>
-      <c r="AG1" s="48">
+      <c r="AG1" s="46">
         <v>50</v>
       </c>
-      <c r="AH1" s="50">
+      <c r="AH1" s="48">
         <v>50</v>
       </c>
-      <c r="AI1" s="50">
+      <c r="AI1" s="48">
         <v>50</v>
       </c>
-      <c r="AJ1" s="50">
+      <c r="AJ1" s="48">
         <v>50</v>
       </c>
-      <c r="AK1" s="49">
+      <c r="AK1" s="47">
         <v>50</v>
       </c>
     </row>
@@ -1791,10 +1785,10 @@
       <c r="G2" s="2">
         <v>0.18</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="29">
         <v>0.1</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="2">
         <v>0.05</v>
       </c>
       <c r="J2" s="2">
@@ -1803,40 +1797,40 @@
       <c r="K2" s="2">
         <v>0.18</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="29">
         <v>0.1</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="29">
         <v>0.05</v>
       </c>
-      <c r="N2" s="12">
+      <c r="N2" s="29">
         <v>0.26</v>
       </c>
       <c r="O2" s="2">
         <v>0.18</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="28">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="13">
+      <c r="Q2" s="2">
         <v>0.05</v>
       </c>
-      <c r="R2" s="30">
+      <c r="R2" s="28">
         <v>0.1</v>
       </c>
-      <c r="S2" s="31">
+      <c r="S2" s="29">
         <v>0.05</v>
       </c>
       <c r="T2" s="2">
         <v>0.01</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="V2" s="32">
+      <c r="V2" s="30">
         <v>2E-3</v>
       </c>
-      <c r="W2" s="31">
+      <c r="W2" s="29">
         <v>0.1</v>
       </c>
       <c r="X2" s="2">
@@ -1845,13 +1839,13 @@
       <c r="Y2" s="2">
         <v>0.01</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="29">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AA2" s="32">
+      <c r="AA2" s="30">
         <v>2E-3</v>
       </c>
-      <c r="AB2" s="31">
+      <c r="AB2" s="2">
         <v>0.1</v>
       </c>
       <c r="AC2" s="2">
@@ -1860,13 +1854,13 @@
       <c r="AD2" s="2">
         <v>0.01</v>
       </c>
-      <c r="AE2" s="12">
+      <c r="AE2" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AF2" s="32">
+      <c r="AF2" s="30">
         <v>2E-3</v>
       </c>
-      <c r="AG2" s="31">
+      <c r="AG2" s="29">
         <v>0.1</v>
       </c>
       <c r="AH2" s="2">
@@ -1875,10 +1869,10 @@
       <c r="AI2" s="2">
         <v>0.01</v>
       </c>
-      <c r="AJ2" s="12">
+      <c r="AJ2" s="11">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AK2" s="32">
+      <c r="AK2" s="30">
         <v>2E-3</v>
       </c>
     </row>
@@ -1886,56 +1880,56 @@
       <c r="A3" s="3">
         <v>0.1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="15" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="60"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="60"/>
+      <c r="S3" s="60"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="15" t="s">
+      <c r="W3" s="60"/>
+      <c r="X3" s="60"/>
+      <c r="Y3" s="60"/>
+      <c r="Z3" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="15" t="s">
+      <c r="AB3" s="60"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="60"/>
+      <c r="AE3" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AF3" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="15" t="s">
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="AK3" s="15" t="s">
+      <c r="AK3" s="13" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1943,98 +1937,98 @@
       <c r="A4" s="3">
         <v>0.5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17" t="s">
+      <c r="J4" s="14"/>
+      <c r="K4" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="V4" s="34" t="s">
+      <c r="V4" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="X4" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AB4" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" s="15" t="s">
+      <c r="AC4" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="AF4" s="35" t="s">
+      <c r="AF4" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="AG4" s="15" t="s">
+      <c r="AG4" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AH4" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="AI4" s="18" t="s">
+      <c r="AI4" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="AJ4" s="34" t="s">
+      <c r="AJ4" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="AK4" s="36" t="s">
+      <c r="AK4" s="34" t="s">
         <v>190</v>
       </c>
     </row>
@@ -2075,10 +2069,10 @@
       <c r="L5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="N5" s="18" t="s">
         <v>57</v>
       </c>
       <c r="O5" s="4" t="s">
@@ -2087,7 +2081,7 @@
       <c r="P5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="17" t="s">
         <v>60</v>
       </c>
       <c r="R5" s="6" t="s">
@@ -2096,13 +2090,13 @@
       <c r="S5" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="17" t="s">
         <v>193</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="19" t="s">
         <v>195</v>
       </c>
       <c r="W5" s="6" t="s">
@@ -2117,7 +2111,7 @@
       <c r="Z5" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="19" t="s">
         <v>200</v>
       </c>
       <c r="AB5" s="6" t="s">
@@ -2126,13 +2120,13 @@
       <c r="AC5" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AD5" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="AF5" s="27" t="s">
+      <c r="AF5" s="25" t="s">
         <v>205</v>
       </c>
       <c r="AG5" s="5" t="s">
@@ -2141,10 +2135,10 @@
       <c r="AH5" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="AJ5" s="38" t="s">
+      <c r="AJ5" s="36" t="s">
         <v>209</v>
       </c>
       <c r="AK5" s="9" t="s">
@@ -2188,7 +2182,7 @@
       <c r="L6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>68</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -2200,7 +2194,7 @@
       <c r="P6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="17" t="s">
         <v>72</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -2209,13 +2203,13 @@
       <c r="S6" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="17" t="s">
         <v>213</v>
       </c>
       <c r="U6" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="V6" s="62"/>
+      <c r="V6" s="61"/>
       <c r="W6" s="6" t="s">
         <v>215</v>
       </c>
@@ -2228,33 +2222,33 @@
       <c r="Z6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="AA6" s="62"/>
+      <c r="AA6" s="61"/>
       <c r="AB6" s="6" t="s">
         <v>219</v>
       </c>
       <c r="AC6" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="AD6" s="39" t="s">
+      <c r="AD6" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="AE6" s="23" t="s">
+      <c r="AE6" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="AF6" s="57"/>
+      <c r="AF6" s="52"/>
       <c r="AG6" s="5" t="s">
         <v>223</v>
       </c>
       <c r="AH6" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AI6" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="AJ6" s="23" t="s">
+      <c r="AJ6" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="AK6" s="57"/>
+      <c r="AK6" s="52"/>
     </row>
     <row r="7" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -2293,7 +2287,7 @@
       <c r="L7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="17" t="s">
         <v>80</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -2305,7 +2299,7 @@
       <c r="P7" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="17" t="s">
         <v>84</v>
       </c>
       <c r="R7" s="6" t="s">
@@ -2314,11 +2308,11 @@
       <c r="S7" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="T7" s="40" t="s">
+      <c r="T7" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="63"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="62"/>
       <c r="W7" s="6" t="s">
         <v>230</v>
       </c>
@@ -2328,30 +2322,30 @@
       <c r="Y7" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="63"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="62"/>
       <c r="AB7" s="6" t="s">
         <v>233</v>
       </c>
       <c r="AC7" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="AD7" s="40" t="s">
+      <c r="AD7" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="AE7" s="60"/>
-      <c r="AF7" s="57"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="52"/>
       <c r="AG7" s="5" t="s">
         <v>236</v>
       </c>
       <c r="AH7" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="AI7" s="40" t="s">
+      <c r="AI7" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="57"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="52"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
@@ -2390,7 +2384,7 @@
       <c r="L8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="17" t="s">
         <v>92</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -2402,7 +2396,7 @@
       <c r="P8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="17" t="s">
         <v>96</v>
       </c>
       <c r="R8" s="6" t="s">
@@ -2411,36 +2405,36 @@
       <c r="S8" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="63"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="62"/>
       <c r="W8" s="6" t="s">
         <v>241</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="Y8" s="41"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="63"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="62"/>
       <c r="AB8" s="6" t="s">
         <v>243</v>
       </c>
       <c r="AC8" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
       <c r="AG8" s="5" t="s">
         <v>245</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
@@ -2467,7 +2461,7 @@
       <c r="H9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>100</v>
       </c>
       <c r="J9" s="6" t="s">
@@ -2479,7 +2473,7 @@
       <c r="L9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="22" t="s">
+      <c r="M9" s="20" t="s">
         <v>104</v>
       </c>
       <c r="N9" s="5" t="s">
@@ -2491,45 +2485,45 @@
       <c r="P9" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="Q9" s="22" t="s">
+      <c r="Q9" s="20" t="s">
         <v>108</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="63"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="62"/>
       <c r="W9" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="X9" s="21" t="s">
+      <c r="X9" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="63"/>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="62"/>
       <c r="AB9" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AC9" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
       <c r="AG9" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AH9" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AI9" s="57"/>
-      <c r="AJ9" s="57"/>
-      <c r="AK9" s="57"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -2556,7 +2550,7 @@
       <c r="H10" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>112</v>
       </c>
       <c r="J10" s="6" t="s">
@@ -2568,7 +2562,7 @@
       <c r="L10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="20" t="s">
         <v>116</v>
       </c>
       <c r="N10" s="5" t="s">
@@ -2580,45 +2574,45 @@
       <c r="P10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="Q10" s="22" t="s">
+      <c r="Q10" s="20" t="s">
         <v>120</v>
       </c>
       <c r="R10" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="63"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="62"/>
       <c r="W10" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="X10" s="21" t="s">
+      <c r="X10" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="63"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="62"/>
       <c r="AB10" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AC10" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
       <c r="AG10" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="AH10" s="21" t="s">
+      <c r="AH10" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="57"/>
-      <c r="AK10" s="57"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -2645,7 +2639,7 @@
       <c r="H11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="19" t="s">
         <v>124</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2657,7 +2651,7 @@
       <c r="L11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="20" t="s">
         <v>128</v>
       </c>
       <c r="N11" s="5" t="s">
@@ -2669,45 +2663,45 @@
       <c r="P11" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="22" t="s">
+      <c r="Q11" s="20" t="s">
         <v>132</v>
       </c>
       <c r="R11" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="63"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="62"/>
       <c r="W11" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="X11" s="21" t="s">
+      <c r="X11" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="63"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="62"/>
       <c r="AB11" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AC11" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
       <c r="AG11" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AH11" s="21" t="s">
+      <c r="AH11" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="AI11" s="57"/>
-      <c r="AJ11" s="57"/>
-      <c r="AK11" s="57"/>
+      <c r="AI11" s="52"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
     </row>
     <row r="12" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
@@ -2731,10 +2725,10 @@
       <c r="G12" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="19" t="s">
         <v>136</v>
       </c>
       <c r="J12" s="6" t="s">
@@ -2743,10 +2737,10 @@
       <c r="K12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="L12" s="21" t="s">
+      <c r="L12" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="20" t="s">
         <v>140</v>
       </c>
       <c r="N12" s="5" t="s">
@@ -2755,48 +2749,48 @@
       <c r="O12" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="Q12" s="22" t="s">
+      <c r="Q12" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="R12" s="40" t="s">
         <v>271</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="42" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="40" t="s">
         <v>273</v>
       </c>
       <c r="X12" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="42" t="s">
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="62"/>
+      <c r="AB12" s="40" t="s">
         <v>275</v>
       </c>
       <c r="AC12" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="21" t="s">
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="19" t="s">
         <v>277</v>
       </c>
       <c r="AH12" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -2820,58 +2814,58 @@
       <c r="G13" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="6" t="s">
         <v>148</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="L13" s="23" t="s">
+      <c r="L13" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25" t="s">
+      <c r="M13" s="22"/>
+      <c r="N13" s="23" t="s">
         <v>151</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="P13" s="23" t="s">
+      <c r="P13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="42" t="s">
+      <c r="Q13" s="24"/>
+      <c r="R13" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="S13" s="60"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="42" t="s">
+      <c r="S13" s="49"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="42" t="s">
+      <c r="X13" s="41"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="21" t="s">
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="52"/>
+      <c r="AE13" s="52"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="57"/>
-      <c r="AJ13" s="57"/>
-      <c r="AK13" s="57"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
     </row>
     <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
@@ -2895,66 +2889,61 @@
       <c r="G14" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="28"/>
-      <c r="N14" s="29" t="s">
+      <c r="M14" s="26"/>
+      <c r="N14" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="P14" s="27" t="s">
+      <c r="P14" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="44" t="s">
+      <c r="Q14" s="26"/>
+      <c r="R14" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="S14" s="65"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="44" t="s">
+      <c r="S14" s="50"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="44" t="s">
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="AC14" s="65"/>
-      <c r="AD14" s="58"/>
-      <c r="AE14" s="58"/>
-      <c r="AF14" s="58"/>
+      <c r="AC14" s="50"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AF14" s="53"/>
       <c r="AG14" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="AH14" s="65"/>
-      <c r="AI14" s="58"/>
-      <c r="AJ14" s="58"/>
-      <c r="AK14" s="58"/>
+      <c r="AH14" s="50"/>
+      <c r="AI14" s="53"/>
+      <c r="AJ14" s="53"/>
+      <c r="AK14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AH13:AH14"/>
-    <mergeCell ref="U7:U14"/>
-    <mergeCell ref="Z7:Z14"/>
-    <mergeCell ref="AE7:AE14"/>
-    <mergeCell ref="B3:E4"/>
     <mergeCell ref="AK6:AK14"/>
     <mergeCell ref="R3:T3"/>
     <mergeCell ref="W3:Y3"/>
@@ -2970,6 +2959,11 @@
     <mergeCell ref="AF6:AF14"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AH13:AH14"/>
+    <mergeCell ref="U7:U14"/>
+    <mergeCell ref="Z7:Z14"/>
+    <mergeCell ref="AE7:AE14"/>
+    <mergeCell ref="B3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
